--- a/sfe_82/sfe_82_RB_metrics.xlsx
+++ b/sfe_82/sfe_82_RB_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usu-my.sharepoint.com/personal/a02353401_aggies_usu_edu/Documents/Documents/GitHub/extract_geo_functions/sfe_82/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{87224F03-D1EE-4C0A-99B1-3F887B1F9E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E909DDA5-E922-442A-9AF8-51EF21E65643}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{87224F03-D1EE-4C0A-99B1-3F887B1F9E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A55D62C-C1D0-4559-840E-0E98381CD7B0}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="series" sheetId="5" r:id="rId1"/>
@@ -1700,6 +1700,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Thalweg, baseflow, bankfull</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6366,16 +6396,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>614362</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6403,15 +6433,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6639,8 +6669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4D728-F3C4-4457-A04F-0EDBF4DC6708}">
   <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="3" sqref="B1:B1048576 C1:C1048576 D1:D1048576 F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
